--- a/data/trans_orig/MCS12_SP-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud mental (SF12)</t>
+          <t>Puntuación media del componente de salud mental (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>50,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,88</t>
+          <t>53,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>47,68</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>53,72</t>
+          <t>53,76</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,27; 51,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,29; 54,44</t>
+          <t>53,36; 54,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,34; 46,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,04; 54,0</t>
+          <t>53,02; 54,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,7; 48,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,34; 54,04</t>
+          <t>53,35; 54,09</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,87</t>
+          <t>53,94</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,11</t>
+          <t>52,13</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>52,96</t>
+          <t>53,04</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,88; 54,74</t>
+          <t>52,97; 54,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,28; 52,8</t>
+          <t>51,32; 52,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,31; 53,5</t>
+          <t>52,38; 53,58</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>54,63</t>
+          <t>54,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,91</t>
+          <t>52,95</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>53,71</t>
+          <t>53,78</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,69; 55,36</t>
+          <t>53,74; 55,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,08; 53,62</t>
+          <t>52,15; 53,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,11; 54,24</t>
+          <t>53,18; 54,31</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,78</t>
+          <t>51,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54,09</t>
+          <t>54,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,85</t>
+          <t>46,53</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>52,24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>48,3</t>
+          <t>48,78</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>52,75</t>
+          <t>52,99</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,15; 51,37</t>
+          <t>50,29; 51,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,92; 54,89</t>
+          <t>52,9; 54,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,82; 46,65</t>
+          <t>45,35; 47,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,53; 52,72</t>
+          <t>51,04; 53,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,7; 48,86</t>
+          <t>47,98; 49,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,89; 53,4</t>
+          <t>52,24; 53,77</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,96</t>
+          <t>48,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>47,07</t>
+          <t>47,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>47,94</t>
+          <t>47,9</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,14; 49,75</t>
+          <t>48,12; 49,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,28; 47,75</t>
+          <t>46,24; 47,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,42; 48,55</t>
+          <t>47,38; 48,49</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>53,72</t>
+          <t>53,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,75</t>
+          <t>52,76</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>53,23</t>
+          <t>53,28</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,69; 54,51</t>
+          <t>52,76; 54,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,8; 53,57</t>
+          <t>51,81; 53,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,59; 53,81</t>
+          <t>52,63; 53,85</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>48,07</t>
+          <t>47,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>49,27</t>
+          <t>48,98</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,64; 49,07</t>
+          <t>45,9; 48,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,09; 49,99</t>
+          <t>47,27; 49,96</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>51,92</t>
+          <t>52,57</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>49,19</t>
+          <t>49,14</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>50,55</t>
+          <t>51,08</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,31; 52,6</t>
+          <t>51,48; 53,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,5; 49,77</t>
+          <t>48,47; 49,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,07; 51,03</t>
+          <t>50,25; 52,75</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>52,6</t>
+          <t>52,82</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50,47</t>
+          <t>50,46</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>51,47</t>
+          <t>51,61</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>52,28; 52,92</t>
+          <t>52,47; 53,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,88; 50,84</t>
+          <t>49,28; 50,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,13; 51,72</t>
+          <t>51,02; 52,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MCS12_SP-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,04; 52,99</t>
+          <t>50,95; 53,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,27; 51,25</t>
+          <t>49,39; 51,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,42; 50,85</t>
+          <t>48,29; 50,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,36; 54,5</t>
+          <t>53,35; 54,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,33; 51,79</t>
+          <t>49,47; 51,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,34; 46,47</t>
+          <t>43,38; 46,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,34; 48,24</t>
+          <t>45,47; 48,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,02; 54,01</t>
+          <t>53,04; 54,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,59; 52,2</t>
+          <t>50,53; 52,08</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,7; 48,53</t>
+          <t>46,76; 48,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,37; 49,23</t>
+          <t>47,27; 49,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,35; 54,09</t>
+          <t>53,36; 54,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,64 +869,64 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,62; 55,23</t>
+          <t>53,5; 55,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,89; 56,08</t>
+          <t>54,79; 56,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,97; 54,82</t>
+          <t>52,98; 54,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,39; 49,08</t>
+          <t>47,37; 49,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 52,38</t>
+          <t>50,38; 52,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,79; 54,4</t>
+          <t>52,78; 54,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,32; 52,81</t>
+          <t>51,34; 52,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,26; 50,37</t>
+          <t>49,26; 50,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>52,25; 53,53</t>
+          <t>52,28; 53,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,0; 55,01</t>
+          <t>53,96; 55,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,38; 53,58</t>
+          <t>52,4; 53,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54,37; 55,38</t>
+          <t>54,4; 55,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,74; 53,44</t>
+          <t>51,65; 53,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,43; 53,51</t>
+          <t>52,44; 53,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,74; 55,4</t>
+          <t>53,78; 55,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,22; 54,43</t>
+          <t>53,16; 54,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,15; 51,1</t>
+          <t>49,13; 51,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,43</t>
+          <t>50,99; 52,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,15; 53,66</t>
+          <t>52,16; 53,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,0; 54,78</t>
+          <t>54,02; 54,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,7; 52,01</t>
+          <t>50,75; 52,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,85; 52,75</t>
+          <t>51,85; 52,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,18; 54,31</t>
+          <t>53,2; 54,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,96; 54,11</t>
+          <t>52,91; 54,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,29; 51,87</t>
+          <t>50,23; 51,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>51,19; 52,95</t>
+          <t>51,19; 52,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,9; 54,93</t>
+          <t>52,86; 55,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,68</t>
+          <t>50,94; 52,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,35; 47,67</t>
+          <t>45,41; 47,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,5; 50,02</t>
+          <t>47,42; 50,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,04; 53,58</t>
+          <t>51,06; 53,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,17; 53,2</t>
+          <t>52,1; 53,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,98; 49,44</t>
+          <t>48,07; 49,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>49,63; 51,19</t>
+          <t>49,62; 51,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,24; 53,77</t>
+          <t>52,19; 53,79</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>49,77; 51,89</t>
+          <t>49,76; 51,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,72; 54,63</t>
+          <t>52,65; 54,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,94; 49,62</t>
+          <t>47,89; 49,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,12; 49,72</t>
+          <t>48,06; 49,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,02; 50,38</t>
+          <t>48,02; 50,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,35; 50,52</t>
+          <t>47,15; 50,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,57; 48,42</t>
+          <t>46,49; 48,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,24; 47,67</t>
+          <t>46,28; 47,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,2; 50,8</t>
+          <t>49,29; 50,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,36; 52,27</t>
+          <t>50,29; 52,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,47; 48,76</t>
+          <t>47,49; 48,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,38; 48,49</t>
+          <t>47,35; 48,42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,07; 55,08</t>
+          <t>54,18; 55,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,98; 52,79</t>
+          <t>50,92; 52,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,52; 54,42</t>
+          <t>52,45; 54,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>52,76; 54,58</t>
+          <t>52,73; 54,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,08; 53,66</t>
+          <t>52,07; 53,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,3; 51,42</t>
+          <t>49,22; 51,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,48; 52,18</t>
+          <t>49,59; 52,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51,81; 53,57</t>
+          <t>51,81; 53,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,32; 54,2</t>
+          <t>53,32; 54,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,31; 51,84</t>
+          <t>50,45; 51,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,33; 52,96</t>
+          <t>51,22; 53,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,63; 53,85</t>
+          <t>52,6; 53,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>53,25; 54,22</t>
+          <t>53,26; 54,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,47; 52,58</t>
+          <t>51,47; 52,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,2; 52,45</t>
+          <t>51,15; 52,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,86; 51,7</t>
+          <t>49,87; 51,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,27</t>
+          <t>51,04; 52,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,08; 51,35</t>
+          <t>50,13; 51,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,79</t>
+          <t>49,18; 50,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,9; 48,99</t>
+          <t>45,7; 49,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,29; 53,13</t>
+          <t>52,32; 53,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,94; 51,79</t>
+          <t>50,94; 51,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,36; 51,38</t>
+          <t>50,33; 51,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,27; 49,96</t>
+          <t>47,24; 49,94</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>50,0; 51,28</t>
+          <t>50,01; 51,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>50,13; 51,42</t>
+          <t>50,11; 51,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,03; 52,97</t>
+          <t>52,04; 52,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,48; 53,92</t>
+          <t>51,51; 53,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,79; 50,04</t>
+          <t>48,76; 50,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,91; 49,22</t>
+          <t>47,86; 49,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,06; 52,12</t>
+          <t>51,01; 52,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>48,47; 49,71</t>
+          <t>48,5; 49,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>49,56; 50,53</t>
+          <t>49,54; 50,48</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,2; 50,14</t>
+          <t>49,12; 50,08</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,38</t>
+          <t>51,66; 52,41</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,25; 52,75</t>
+          <t>50,23; 52,72</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,31; 52,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,3</t>
+          <t>51,75; 52,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,7</t>
+          <t>52,17; 52,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>52,47; 53,36</t>
+          <t>52,48; 53,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,27; 50,95</t>
+          <t>50,31; 50,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,28; 50,95</t>
+          <t>49,39; 50,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,45; 51,86</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50,39; 50,83</t>
+          <t>50,4; 50,84</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,71</t>
+          <t>51,3; 51,71</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>51,02; 52,01</t>
+          <t>50,98; 51,99</t>
         </is>
       </c>
     </row>
